--- a/assets/graphs/graphtable.xlsx
+++ b/assets/graphs/graphtable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanshanyerenzhizi/Desktop/2025_2026/Finance club/econgraphs.github.io/assets/graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF091A52-6366-8B43-8195-BFEDA8384C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DC6194-863F-454F-B273-97906A9DC7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="660" windowWidth="36140" windowHeight="17180" xr2:uid="{DA0673EF-C297-D94C-B899-73F575C2450E}"/>
+    <workbookView xWindow="13080" yWindow="660" windowWidth="30240" windowHeight="17180" xr2:uid="{DA0673EF-C297-D94C-B899-73F575C2450E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>https://www.desmos.com/calculator/gmwbsmu3rj</t>
   </si>
   <si>
-    <t>Macro</t>
-  </si>
-  <si>
     <t>https://www.desmos.com/calculator/pyisxgdpfi</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>Supply and Demand Model</t>
   </si>
   <si>
-    <t>Micro</t>
-  </si>
-  <si>
     <t>https://www.desmos.com/calculator/2d7451f7a9</t>
   </si>
   <si>
@@ -96,6 +90,12 @@
   </si>
   <si>
     <t>The Indifference Curve</t>
+  </si>
+  <si>
+    <t>Macroeconomics</t>
+  </si>
+  <si>
+    <t>Microeconomics</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,64 +506,64 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/assets/graphs/graphtable.xlsx
+++ b/assets/graphs/graphtable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanshanyerenzhizi/Desktop/2025_2026/Finance club/econgraphs.github.io/assets/graphs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 School\2025~2026\Econ Club\econgraphs\assets\graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DC6194-863F-454F-B273-97906A9DC7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035341A5-12BB-427B-9E1D-ED0B4C0D4714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13080" yWindow="660" windowWidth="30240" windowHeight="17180" xr2:uid="{DA0673EF-C297-D94C-B899-73F575C2450E}"/>
+    <workbookView xWindow="3301" yWindow="3301" windowWidth="17810" windowHeight="10325" xr2:uid="{DA0673EF-C297-D94C-B899-73F575C2450E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Title</t>
   </si>
@@ -53,9 +42,6 @@
     <t xml:space="preserve">Detailed Description </t>
   </si>
   <si>
-    <t xml:space="preserve">AD-AS Model </t>
-  </si>
-  <si>
     <t>https://www.desmos.com/calculator/gmwbsmu3rj</t>
   </si>
   <si>
@@ -74,28 +60,55 @@
     <t>not completed</t>
   </si>
   <si>
-    <t>https://www.desmos.com/3d/fqmaahtdps</t>
-  </si>
-  <si>
     <t>This graph shows  basic supply and demand, and the effects of price changes</t>
   </si>
   <si>
-    <t>This graph stimulates output gaps and explores its effects</t>
-  </si>
-  <si>
     <t>This graph depicts the relationship  between MPC and the multiplier effect</t>
   </si>
   <si>
-    <t>This graph is a 3D representation of the Indifference Curve</t>
-  </si>
-  <si>
-    <t>The Indifference Curve</t>
-  </si>
-  <si>
     <t>Macroeconomics</t>
   </si>
   <si>
     <t>Microeconomics</t>
+  </si>
+  <si>
+    <t>https://www.desmos.com/calculator/wcll2sx4dt</t>
+  </si>
+  <si>
+    <t>PPC + Indifference Curve</t>
+  </si>
+  <si>
+    <t>This graph shows trade-offs in the Production Possibility frontier and how an individual chooses resource allocation</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>Macro Model</t>
+  </si>
+  <si>
+    <t>Perfect Competition Model</t>
+  </si>
+  <si>
+    <t>https://www.desmos.com/calculator/oc5fxe5pm2</t>
+  </si>
+  <si>
+    <t>This graph depicts the industry and firm supply and demand curves and production choices</t>
+  </si>
+  <si>
+    <t>Options Pricing</t>
+  </si>
+  <si>
+    <t>https://www.desmos.com/calculator/8k6sxplxmk</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>This graph simulates output gaps and explores its effects</t>
+  </si>
+  <si>
+    <t>This graph simulates options pricing based on strike price, time to expiration, showing the "greeks" of an option</t>
   </si>
 </sst>
 </file>
@@ -467,13 +480,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BEC086-2962-9B43-AA92-693AEDAE1DF1}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.3" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="45.33203125" customWidth="1"/>
@@ -481,7 +494,7 @@
     <col min="5" max="5" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,72 +511,106 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/assets/graphs/graphtable.xlsx
+++ b/assets/graphs/graphtable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 School\2025~2026\Econ Club\econgraphs\assets\graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035341A5-12BB-427B-9E1D-ED0B4C0D4714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC85F14A-6C57-4C67-8210-FE101DD05CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3301" yWindow="3301" windowWidth="17810" windowHeight="10325" xr2:uid="{DA0673EF-C297-D94C-B899-73F575C2450E}"/>
+    <workbookView xWindow="2962" yWindow="2962" windowWidth="17809" windowHeight="10324" xr2:uid="{DA0673EF-C297-D94C-B899-73F575C2450E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>Title</t>
   </si>
@@ -109,19 +109,67 @@
   </si>
   <si>
     <t>This graph simulates options pricing based on strike price, time to expiration, showing the "greeks" of an option</t>
+  </si>
+  <si>
+    <t>Interactive</t>
+  </si>
+  <si>
+    <t>Badge 1 Text</t>
+  </si>
+  <si>
+    <t>Badge 1 Color</t>
+  </si>
+  <si>
+    <t>#ffc14d</t>
+  </si>
+  <si>
+    <t>Featured</t>
+  </si>
+  <si>
+    <t>#3dc5ff</t>
+  </si>
+  <si>
+    <t>Production Curves</t>
+  </si>
+  <si>
+    <t>Imperfect Competition Model</t>
+  </si>
+  <si>
+    <t>https://www.desmos.com/calculator/ee4f3cbdd2</t>
+  </si>
+  <si>
+    <t>This graph shows the demand and cost curves for markets that are not perfect competition</t>
+  </si>
+  <si>
+    <t>https://www.desmos.com/calculator/xowe1i5to0</t>
+  </si>
+  <si>
+    <t>This graph shows the relationship between Marginal Cost and Marginal Product</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>#bfa0eb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEBB07A"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,8 +192,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BEC086-2962-9B43-AA92-693AEDAE1DF1}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.3" x14ac:dyDescent="0.3"/>
@@ -494,7 +545,7 @@
     <col min="5" max="5" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,8 +561,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -527,8 +584,14 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -544,8 +607,14 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -561,42 +630,106 @@
       <c r="E4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -611,6 +744,12 @@
       </c>
       <c r="E14" t="s">
         <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
